--- a/src/test/resources/data/Login.xlsx
+++ b/src/test/resources/data/Login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT_FRAMEWORK\AutomationFrameworkSelenium\src\test\resources\testdataCMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mastery/Documents/Projects/NakivoTestSuite/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA8CCE8-8C6E-49C1-AAD3-FC5802B361F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9AB336-4EA0-BA43-8381-B18A02B5CD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25460" yWindow="660" windowWidth="25300" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,39 +20,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>function</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
-    <t>loginFailWithEmailDoesNotExist</t>
-  </si>
-  <si>
     <t>cashierngan001@gmail.com</t>
   </si>
   <si>
-    <t>loginFailWithNullPassword</t>
-  </si>
-  <si>
-    <t>loginFailWithIncorrectPassword</t>
-  </si>
-  <si>
     <t>customer@example.com</t>
   </si>
   <si>
-    <t>loginSuccessWithCustomerAccount</t>
-  </si>
-  <si>
-    <t>loginSuccessAdminPage</t>
-  </si>
-  <si>
-    <t>admin@example.com</t>
+    <t>nakivo</t>
+  </si>
+  <si>
+    <t>LoginFailWithInvalidCredentials</t>
+  </si>
+  <si>
+    <t>LoginSuccess</t>
+  </si>
+  <si>
+    <t>LoginFailWithEmptyCredentials</t>
+  </si>
+  <si>
+    <t>LoginFailWithInvalidEmailFormat</t>
+  </si>
+  <si>
+    <t>LoginFailWithExcessivelyLongPassword</t>
+  </si>
+  <si>
+    <t>customerexample.com</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>LoginFailWithExcessivelyLongEmailAddress</t>
+  </si>
+  <si>
+    <t>LoginFailWithExcessivelyLongPasswordLoginFailWithExcessivelyLongPasswordLoginFailWithExcessivelyLongP</t>
+  </si>
+  <si>
+    <t>customerLoginFailWithExcessivelyLongEmailAddressLoginFailWithExcessivelyLongEmailAddressLoginFailWithExcessivelyLongEmailAddressLoginFailWithExcessivelyLongEmailAddressLoginFailWithExcessivelyLongEmailAddressLoginFailWithExcessivelyLongEmailAdd@example.com</t>
   </si>
 </sst>
 </file>
@@ -62,33 +74,26 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -112,15 +117,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -397,34 +400,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -433,53 +436,64 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>123456</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="J11" s="3"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1" display="customerLoginFailWithExcessivelyLongEmailAddressLoginFailWithExcessivelyLongEmailAddressLoginFailWithExcessivelyLongEmailAddressLoginFailWithExcessivelyLongEmailAddressLoginFailWithExcessivelyLongEmailAddressLoginFailWithExcessivelyLongEmailAdd@example.com" xr:uid="{D234D626-6C6A-2744-8843-8944F8DF27F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
